--- a/04_Safety_helmet_vest_detection/Safety_helmet_vest_img/exe/yolov3_Helmet_vest_detection/yolov3_Helmet_vest_detection_summary.xlsx
+++ b/04_Safety_helmet_vest_detection/Safety_helmet_vest_img/exe/yolov3_Helmet_vest_detection/yolov3_Helmet_vest_detection_summary.xlsx
@@ -777,7 +777,7 @@
         <v>416</v>
       </c>
       <c r="S5" t="n">
-        <v>3985</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
@@ -843,7 +843,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/module_list.0/conv_0/Conv_output_0</t>
+          <t>701</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/module_list.1/conv_1/Conv_output_0</t>
+          <t>704</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/module_list.2/conv_2/Conv_output_0</t>
+          <t>707</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/module_list.3/conv_3/Conv_output_0</t>
+          <t>710</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/Add_output_0</t>
+          <t>457</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/module_list.5/conv_5/Conv_output_0</t>
+          <t>713</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/module_list.6/conv_6/Conv_output_0</t>
+          <t>716</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/module_list.7/conv_7/Conv_output_0</t>
+          <t>719</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/Add_1_output_0</t>
+          <t>467</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/module_list.9/conv_9/Conv_output_0</t>
+          <t>722</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/module_list.10/conv_10/Conv_output_0</t>
+          <t>725</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/Add_2_output_0</t>
+          <t>474</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/module_list.12/conv_12/Conv_output_0</t>
+          <t>728</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/module_list.13/conv_13/Conv_output_0</t>
+          <t>731</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/module_list.14/conv_14/Conv_output_0</t>
+          <t>734</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/Add_3_output_0</t>
+          <t>484</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/module_list.16/conv_16/Conv_output_0</t>
+          <t>737</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/module_list.17/conv_17/Conv_output_0</t>
+          <t>740</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/Add_4_output_0</t>
+          <t>491</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/module_list.19/conv_19/Conv_output_0</t>
+          <t>743</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/module_list.20/conv_20/Conv_output_0</t>
+          <t>746</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/Add_5_output_0</t>
+          <t>498</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/module_list.22/conv_22/Conv_output_0</t>
+          <t>749</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/module_list.23/conv_23/Conv_output_0</t>
+          <t>752</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/Add_6_output_0</t>
+          <t>505</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/module_list.25/conv_25/Conv_output_0</t>
+          <t>755</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/module_list.26/conv_26/Conv_output_0</t>
+          <t>758</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/Add_7_output_0</t>
+          <t>512</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/module_list.28/conv_28/Conv_output_0</t>
+          <t>761</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/module_list.29/conv_29/Conv_output_0</t>
+          <t>764</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/Add_8_output_0</t>
+          <t>519</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/module_list.31/conv_31/Conv_output_0</t>
+          <t>767</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/module_list.32/conv_32/Conv_output_0</t>
+          <t>770</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/Add_9_output_0</t>
+          <t>526</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/module_list.34/conv_34/Conv_output_0</t>
+          <t>773</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/module_list.35/conv_35/Conv_output_0</t>
+          <t>776</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/Add_10_output_0</t>
+          <t>533</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/module_list.37/conv_37/Conv_output_0</t>
+          <t>779</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3123,7 +3123,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/module_list.38/conv_38/Conv_output_0</t>
+          <t>782</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/module_list.39/conv_39/Conv_output_0</t>
+          <t>785</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/Add_11_output_0</t>
+          <t>543</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/module_list.41/conv_41/Conv_output_0</t>
+          <t>788</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/module_list.42/conv_42/Conv_output_0</t>
+          <t>791</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/Add_12_output_0</t>
+          <t>550</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/module_list.44/conv_44/Conv_output_0</t>
+          <t>794</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/module_list.45/conv_45/Conv_output_0</t>
+          <t>797</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/Add_13_output_0</t>
+          <t>557</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/module_list.47/conv_47/Conv_output_0</t>
+          <t>800</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/module_list.48/conv_48/Conv_output_0</t>
+          <t>803</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/Add_14_output_0</t>
+          <t>564</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/module_list.50/conv_50/Conv_output_0</t>
+          <t>806</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/module_list.51/conv_51/Conv_output_0</t>
+          <t>809</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/Add_15_output_0</t>
+          <t>571</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/module_list.53/conv_53/Conv_output_0</t>
+          <t>812</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/module_list.54/conv_54/Conv_output_0</t>
+          <t>815</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/Add_16_output_0</t>
+          <t>578</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/module_list.56/conv_56/Conv_output_0</t>
+          <t>818</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/module_list.57/conv_57/Conv_output_0</t>
+          <t>821</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/Add_17_output_0</t>
+          <t>585</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/module_list.59/conv_59/Conv_output_0</t>
+          <t>824</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/module_list.60/conv_60/Conv_output_0</t>
+          <t>827</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/Add_18_output_0</t>
+          <t>592</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/module_list.62/conv_62/Conv_output_0</t>
+          <t>830</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/module_list.63/conv_63/Conv_output_0</t>
+          <t>833</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/module_list.64/conv_64/Conv_output_0</t>
+          <t>836</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/Add_19_output_0</t>
+          <t>602</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/module_list.66/conv_66/Conv_output_0</t>
+          <t>839</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/module_list.67/conv_67/Conv_output_0</t>
+          <t>842</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/Add_20_output_0</t>
+          <t>609</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/module_list.69/conv_69/Conv_output_0</t>
+          <t>845</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/module_list.70/conv_70/Conv_output_0</t>
+          <t>848</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/Add_21_output_0</t>
+          <t>616</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/module_list.72/conv_72/Conv_output_0</t>
+          <t>851</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/module_list.73/conv_73/Conv_output_0</t>
+          <t>854</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5283,7 +5283,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/Add_22_output_0</t>
+          <t>623</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/module_list.75/conv_75/Conv_output_0</t>
+          <t>857</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/module_list.76/conv_76/Conv_output_0</t>
+          <t>860</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/module_list.77/conv_77/Conv_output_0</t>
+          <t>863</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/module_list.78/conv_78/Conv_output_0</t>
+          <t>866</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/module_list.79/conv_79/Conv_output_0</t>
+          <t>869</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/module_list.80/conv_80/Conv_output_0</t>
+          <t>872</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/module_list.84/conv_84/Conv_output_0</t>
+          <t>875</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/module_list.85/upsample_85/Resize_output_0</t>
+          <t>651</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>/module_list.87/conv_87/Conv_output_0</t>
+          <t>878</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>/module_list.88/conv_88/Conv_output_0</t>
+          <t>881</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/module_list.89/conv_89/Conv_output_0</t>
+          <t>884</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/module_list.90/conv_90/Conv_output_0</t>
+          <t>887</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>/module_list.91/conv_91/Conv_output_0</t>
+          <t>890</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>/module_list.92/conv_92/Conv_output_0</t>
+          <t>893</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>/module_list.96/conv_96/Conv_output_0</t>
+          <t>896</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/module_list.97/upsample_97/Resize_output_0</t>
+          <t>680</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>/module_list.99/conv_99/Conv_output_0</t>
+          <t>899</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>/module_list.100/conv_100/Conv_output_0</t>
+          <t>902</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>/module_list.101/conv_101/Conv_output_0</t>
+          <t>905</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>/module_list.102/conv_102/Conv_output_0</t>
+          <t>908</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>/module_list.103/conv_103/Conv_output_0</t>
+          <t>911</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>/module_list.104/conv_104/Conv_output_0</t>
+          <t>914</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -7189,7 +7189,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>188888</v>
+        <v>186567</v>
       </c>
     </row>
     <row r="114">
